--- a/who_is_under_cover.xlsx
+++ b/who_is_under_cover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsaac/Desktop/python_final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B9EA24-196C-804A-BD1D-7E81F5D78F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B232BDB5-CDB2-5C4C-87A3-0EBD9F6CB8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>civilian</t>
   </si>
@@ -28,60 +28,24 @@
     <t>under_cover</t>
   </si>
   <si>
-    <t>郭德綱</t>
-  </si>
-  <si>
-    <t>周立波</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>蘇州</t>
-  </si>
-  <si>
     <t>梁山伯與祝英臺</t>
   </si>
   <si>
     <t>羅密歐與朱麗葉</t>
   </si>
   <si>
-    <t>金絲猴</t>
-  </si>
-  <si>
-    <t>大白兔（奶糖）</t>
-  </si>
-  <si>
-    <t>兩小無猜</t>
-  </si>
-  <si>
-    <t>青梅竹馬</t>
-  </si>
-  <si>
     <t>紅燒牛肉面</t>
   </si>
   <si>
     <t>香辣牛肉面</t>
   </si>
   <si>
-    <t>金庸</t>
-  </si>
-  <si>
-    <t>古龍</t>
-  </si>
-  <si>
     <t>首爾</t>
   </si>
   <si>
     <t>東京</t>
   </si>
   <si>
-    <t>何炅</t>
-  </si>
-  <si>
-    <t>李維嘉</t>
-  </si>
-  <si>
     <t>作家</t>
   </si>
   <si>
@@ -106,36 +70,6 @@
     <t>九陰白骨爪</t>
   </si>
   <si>
-    <t>貴妃醉酒</t>
-  </si>
-  <si>
-    <t>黛玉葬花</t>
-  </si>
-  <si>
-    <t>龍鳳呈祥</t>
-  </si>
-  <si>
-    <t>鴛鴦戲水</t>
-  </si>
-  <si>
-    <t>那英</t>
-  </si>
-  <si>
-    <t>韓紅</t>
-  </si>
-  <si>
-    <t>老佛爺</t>
-  </si>
-  <si>
-    <t>老天爺</t>
-  </si>
-  <si>
-    <t>美人心計</t>
-  </si>
-  <si>
-    <t>傾世皇妃</t>
-  </si>
-  <si>
     <t>唇膏</t>
   </si>
   <si>
@@ -160,24 +94,12 @@
     <t>隱形眼鏡</t>
   </si>
   <si>
-    <t>天天向上</t>
-  </si>
-  <si>
-    <t>非誠勿擾</t>
-  </si>
-  <si>
     <t>香港</t>
   </si>
   <si>
     <t>臺灣</t>
   </si>
   <si>
-    <t>若曦</t>
-  </si>
-  <si>
-    <t>晴川</t>
-  </si>
-  <si>
     <t>烤肉</t>
   </si>
   <si>
@@ -190,36 +112,12 @@
     <t>抱枕</t>
   </si>
   <si>
-    <t>謝娜</t>
-  </si>
-  <si>
-    <t>李湘</t>
-  </si>
-  <si>
-    <t>董永</t>
-  </si>
-  <si>
-    <t>許仙</t>
-  </si>
-  <si>
-    <t>壁紙</t>
-  </si>
-  <si>
-    <t>貼畫</t>
-  </si>
-  <si>
     <t>結婚</t>
   </si>
   <si>
     <t>訂婚</t>
   </si>
   <si>
-    <t>漢堡包</t>
-  </si>
-  <si>
-    <t>肉夾饃</t>
-  </si>
-  <si>
     <t>吉他</t>
   </si>
   <si>
@@ -262,138 +160,54 @@
     <t>手帕</t>
   </si>
   <si>
-    <t>葡萄</t>
-  </si>
-  <si>
-    <t>提子[ 漢語網 ]</t>
-  </si>
-  <si>
     <t>冠軍</t>
   </si>
   <si>
     <t>第一</t>
   </si>
   <si>
-    <t>江南style</t>
-  </si>
-  <si>
-    <t>最炫民族風</t>
-  </si>
-  <si>
     <t>勇往直前</t>
   </si>
   <si>
     <t>全力以赴</t>
   </si>
   <si>
-    <t>警察</t>
-  </si>
-  <si>
-    <t>捕快</t>
-  </si>
-  <si>
     <t>童話</t>
   </si>
   <si>
     <t>神話</t>
   </si>
   <si>
-    <t>手機</t>
-  </si>
-  <si>
-    <t>座機</t>
-  </si>
-  <si>
     <t>辣椒</t>
   </si>
   <si>
     <t>芥末</t>
   </si>
   <si>
-    <t>夏家三千金</t>
-  </si>
-  <si>
-    <t>愛情睡醒了</t>
-  </si>
-  <si>
     <t>語無倫次</t>
   </si>
   <si>
     <t>詞不達意</t>
   </si>
   <si>
-    <t>趙敏</t>
-  </si>
-  <si>
-    <t>黃蓉</t>
-  </si>
-  <si>
     <t>作文</t>
   </si>
   <si>
     <t>論文</t>
   </si>
   <si>
-    <t>裸婚</t>
-  </si>
-  <si>
-    <t>閃婚</t>
-  </si>
-  <si>
-    <t>果粒橙</t>
-  </si>
-  <si>
-    <t>鮮橙多</t>
-  </si>
-  <si>
-    <t>孟非</t>
-  </si>
-  <si>
-    <t>樂嘉</t>
-  </si>
-  <si>
-    <t>神雕俠侶</t>
-  </si>
-  <si>
-    <t>天龍八部</t>
-  </si>
-  <si>
-    <t>口香糖</t>
-  </si>
-  <si>
-    <t>木糖醇</t>
-  </si>
-  <si>
-    <t>過山車</t>
-  </si>
-  <si>
-    <t>碰碰車</t>
-  </si>
-  <si>
     <t>成吉思汗</t>
   </si>
   <si>
     <t>努爾哈赤</t>
   </si>
   <si>
-    <t>同學</t>
-  </si>
-  <si>
-    <t>同桌</t>
-  </si>
-  <si>
     <t>太監</t>
   </si>
   <si>
     <t>人妖</t>
   </si>
   <si>
-    <t>魚香肉絲</t>
-  </si>
-  <si>
-    <t>四喜丸子</t>
-  </si>
-  <si>
     <t>福爾摩斯</t>
   </si>
   <si>
@@ -412,24 +226,6 @@
     <t>皮蛋豆腐</t>
   </si>
   <si>
-    <t>流星花園</t>
-  </si>
-  <si>
-    <t>花樣男子</t>
-  </si>
-  <si>
-    <t>謝娜張杰</t>
-  </si>
-  <si>
-    <t>鄧超孫儷</t>
-  </si>
-  <si>
-    <t>宮鎖心玉</t>
-  </si>
-  <si>
-    <t>宮鎖珠簾</t>
-  </si>
-  <si>
     <t>小品</t>
   </si>
   <si>
@@ -460,59 +256,16 @@
     <t>麻花</t>
   </si>
   <si>
-    <t>公交</t>
-  </si>
-  <si>
-    <t>地鐵</t>
-  </si>
-  <si>
-    <t>剩女</t>
-  </si>
-  <si>
-    <t>御姐</t>
-  </si>
-  <si>
-    <t>森馬</t>
-  </si>
-  <si>
-    <t>以純</t>
-  </si>
-  <si>
-    <t>鼠目寸光</t>
-  </si>
-  <si>
-    <t>井底之蛙</t>
-  </si>
-  <si>
-    <t>福爾摩斯-工藤新</t>
-  </si>
-  <si>
-    <t>福爾摩斯-柯南</t>
-  </si>
-  <si>
-    <t>玫瑰</t>
-  </si>
-  <si>
-    <t>月季</t>
-  </si>
-  <si>
     <t>蝴蝶</t>
   </si>
   <si>
     <t>蜜蜂</t>
   </si>
   <si>
-    <t>孟飛</t>
-  </si>
-  <si>
     <t>水盆</t>
   </si>
   <si>
     <t>水桶</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -884,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1158,10 +911,10 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1182,413 +935,58 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>134</v>
-      </c>
-      <c r="B72" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>138</v>
-      </c>
-      <c r="B75" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>140</v>
-      </c>
-      <c r="B76" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>142</v>
-      </c>
-      <c r="B77" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>144</v>
-      </c>
-      <c r="B78" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>146</v>
-      </c>
-      <c r="B79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>148</v>
-      </c>
-      <c r="B80" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>150</v>
-      </c>
-      <c r="B81" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>154</v>
-      </c>
-      <c r="B83" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>156</v>
-      </c>
-      <c r="B84" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>158</v>
-      </c>
-      <c r="B85" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>160</v>
-      </c>
-      <c r="B86" t="s">
-        <v>109</v>
-      </c>
-      <c r="E86" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>161</v>
-      </c>
-      <c r="B87" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/who_is_under_cover.xlsx
+++ b/who_is_under_cover.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsaac/Desktop/python_final_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric1\Desktop\Files\Code\Python\linebot_little_helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B232BDB5-CDB2-5C4C-87A3-0EBD9F6CB8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>civilian</t>
   </si>
@@ -28,33 +27,12 @@
     <t>under_cover</t>
   </si>
   <si>
-    <t>梁山伯與祝英臺</t>
-  </si>
-  <si>
-    <t>羅密歐與朱麗葉</t>
-  </si>
-  <si>
-    <t>紅燒牛肉面</t>
-  </si>
-  <si>
-    <t>香辣牛肉面</t>
-  </si>
-  <si>
     <t>首爾</t>
   </si>
   <si>
     <t>東京</t>
   </si>
   <si>
-    <t>作家</t>
-  </si>
-  <si>
-    <t>編劇</t>
-  </si>
-  <si>
-    <t>面包</t>
-  </si>
-  <si>
     <t>蛋糕</t>
   </si>
   <si>
@@ -64,12 +42,6 @@
     <t>西瓜</t>
   </si>
   <si>
-    <t>降龍十八掌</t>
-  </si>
-  <si>
-    <t>九陰白骨爪</t>
-  </si>
-  <si>
     <t>唇膏</t>
   </si>
   <si>
@@ -82,201 +54,279 @@
     <t>豆漿</t>
   </si>
   <si>
-    <t>白菜</t>
-  </si>
-  <si>
-    <t>生菜</t>
-  </si>
-  <si>
-    <t>近視眼鏡</t>
-  </si>
-  <si>
-    <t>隱形眼鏡</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>臺灣</t>
-  </si>
-  <si>
-    <t>烤肉</t>
-  </si>
-  <si>
-    <t>涮肉</t>
-  </si>
-  <si>
-    <t>枕頭</t>
-  </si>
-  <si>
-    <t>抱枕</t>
-  </si>
-  <si>
-    <t>結婚</t>
-  </si>
-  <si>
-    <t>訂婚</t>
-  </si>
-  <si>
     <t>吉他</t>
   </si>
   <si>
-    <t>琵琶</t>
-  </si>
-  <si>
-    <t>橙子</t>
-  </si>
-  <si>
-    <t>橘子</t>
-  </si>
-  <si>
-    <t>新年</t>
-  </si>
-  <si>
-    <t>跨年</t>
-  </si>
-  <si>
-    <t>十面埋伏</t>
-  </si>
-  <si>
-    <t>四面楚歌</t>
-  </si>
-  <si>
     <t>海豚</t>
   </si>
   <si>
-    <t>海獅</t>
-  </si>
-  <si>
-    <t>腳踏車</t>
-  </si>
-  <si>
-    <t>自行車</t>
-  </si>
-  <si>
-    <t>紙巾</t>
-  </si>
-  <si>
     <t>手帕</t>
   </si>
   <si>
-    <t>冠軍</t>
-  </si>
-  <si>
-    <t>第一</t>
-  </si>
-  <si>
-    <t>勇往直前</t>
-  </si>
-  <si>
-    <t>全力以赴</t>
-  </si>
-  <si>
-    <t>童話</t>
-  </si>
-  <si>
-    <t>神話</t>
-  </si>
-  <si>
     <t>辣椒</t>
   </si>
   <si>
     <t>芥末</t>
   </si>
   <si>
-    <t>語無倫次</t>
-  </si>
-  <si>
-    <t>詞不達意</t>
-  </si>
-  <si>
     <t>作文</t>
   </si>
   <si>
     <t>論文</t>
   </si>
   <si>
-    <t>成吉思汗</t>
-  </si>
-  <si>
-    <t>努爾哈赤</t>
-  </si>
-  <si>
-    <t>太監</t>
-  </si>
-  <si>
-    <t>人妖</t>
-  </si>
-  <si>
-    <t>福爾摩斯</t>
-  </si>
-  <si>
-    <t>工藤新一</t>
-  </si>
-  <si>
-    <t>婚紗</t>
-  </si>
-  <si>
-    <t>喜服</t>
-  </si>
-  <si>
-    <t>麻婆豆腐</t>
-  </si>
-  <si>
-    <t>皮蛋豆腐</t>
-  </si>
-  <si>
-    <t>小品</t>
-  </si>
-  <si>
-    <t>話劇</t>
-  </si>
-  <si>
     <t>獎牌</t>
   </si>
   <si>
-    <t>金牌</t>
-  </si>
-  <si>
-    <t>保安</t>
-  </si>
-  <si>
     <t>保鏢</t>
   </si>
   <si>
-    <t>氣泡</t>
-  </si>
-  <si>
-    <t>水泡</t>
-  </si>
-  <si>
-    <t>油條</t>
-  </si>
-  <si>
-    <t>麻花</t>
-  </si>
-  <si>
     <t>蝴蝶</t>
   </si>
   <si>
     <t>蜜蜂</t>
   </si>
   <si>
-    <t>水盆</t>
-  </si>
-  <si>
     <t>水桶</t>
+  </si>
+  <si>
+    <t>麵包</t>
+  </si>
+  <si>
+    <t>泳褲</t>
+  </si>
+  <si>
+    <t>內褲</t>
+  </si>
+  <si>
+    <t>口罩</t>
+  </si>
+  <si>
+    <t>面具</t>
+  </si>
+  <si>
+    <t>眉毛</t>
+  </si>
+  <si>
+    <t>鬍鬚</t>
+  </si>
+  <si>
+    <t>火鍋</t>
+  </si>
+  <si>
+    <t>壽喜燒</t>
+  </si>
+  <si>
+    <t>浴缸</t>
+  </si>
+  <si>
+    <t>魚缸</t>
+  </si>
+  <si>
+    <t>筷子</t>
+  </si>
+  <si>
+    <t>牙籤</t>
+  </si>
+  <si>
+    <t>海豹</t>
+  </si>
+  <si>
+    <t>健保卡</t>
+  </si>
+  <si>
+    <t>身分證</t>
+  </si>
+  <si>
+    <t>板凳</t>
+  </si>
+  <si>
+    <t>沙發</t>
+  </si>
+  <si>
+    <t>小提琴</t>
+  </si>
+  <si>
+    <t>消防車</t>
+  </si>
+  <si>
+    <t>救護車</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>茄子</t>
+  </si>
+  <si>
+    <t>櫻桃</t>
+  </si>
+  <si>
+    <t>草莓</t>
+  </si>
+  <si>
+    <t>西洋劍</t>
+  </si>
+  <si>
+    <t>武士刀</t>
+  </si>
+  <si>
+    <t>衛生紙</t>
+  </si>
+  <si>
+    <t>魔術</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>蚊子</t>
+  </si>
+  <si>
+    <t>火星</t>
+  </si>
+  <si>
+    <t>太陽</t>
+  </si>
+  <si>
+    <t>電池</t>
+  </si>
+  <si>
+    <t>行動電源</t>
+  </si>
+  <si>
+    <t>蝦子</t>
+  </si>
+  <si>
+    <t>螃蟹</t>
+  </si>
+  <si>
+    <t>毛筆</t>
+  </si>
+  <si>
+    <t>水彩筆</t>
+  </si>
+  <si>
+    <t>游泳池</t>
+  </si>
+  <si>
+    <t>湖</t>
+  </si>
+  <si>
+    <t>刺客</t>
+  </si>
+  <si>
+    <t>間諜</t>
+  </si>
+  <si>
+    <t>布丁</t>
+  </si>
+  <si>
+    <t>果凍</t>
+  </si>
+  <si>
+    <t>貓</t>
+  </si>
+  <si>
+    <t>獅子</t>
+  </si>
+  <si>
+    <t>高跟鞋</t>
+  </si>
+  <si>
+    <t>涼鞋</t>
+  </si>
+  <si>
+    <t>跳蚤</t>
+  </si>
+  <si>
+    <t>水壺</t>
+  </si>
+  <si>
+    <t>茶壺</t>
+  </si>
+  <si>
+    <t>麻將</t>
+  </si>
+  <si>
+    <t>撲克牌</t>
+  </si>
+  <si>
+    <t>獎盃</t>
+  </si>
+  <si>
+    <t>遲到</t>
+  </si>
+  <si>
+    <t>翹課</t>
+  </si>
+  <si>
+    <t>蟹堡王</t>
+  </si>
+  <si>
+    <t>漢堡王</t>
+  </si>
+  <si>
+    <t>臉盆</t>
+  </si>
+  <si>
+    <t>斗篷</t>
+  </si>
+  <si>
+    <t>外套</t>
+  </si>
+  <si>
+    <t>安全帽</t>
+  </si>
+  <si>
+    <t>安全帶</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>冷氣</t>
+  </si>
+  <si>
+    <t>飲水機</t>
+  </si>
+  <si>
+    <t>飲料販賣機</t>
+  </si>
+  <si>
+    <t>捷運</t>
+  </si>
+  <si>
+    <t>高鐵</t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>蠟燭</t>
+  </si>
+  <si>
+    <t>火柴</t>
+  </si>
+  <si>
+    <t>刺蝟</t>
+  </si>
+  <si>
+    <t>砧板</t>
+  </si>
+  <si>
+    <t>桌子</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -289,7 +339,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -636,16 +686,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,234 +705,234 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -903,94 +953,151 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/who_is_under_cover.xlsx
+++ b/who_is_under_cover.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsaac/Desktop/python_final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B232BDB5-CDB2-5C4C-87A3-0EBD9F6CB8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA7BBB-7272-3F45-931A-56A84EF17795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -640,7 +640,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
